--- a/rhla_analysis/rhla1_3_normal_result/k6.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k6.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0054743414747592</v>
+        <v>0.005474341474759227</v>
       </c>
       <c r="B2" t="n">
         <v>0.288760968482489</v>
@@ -466,12 +466,12 @@
         <v>0.139386189258312</v>
       </c>
       <c r="D2" t="n">
-        <v>52.74807386676418</v>
+        <v>52.74807386676391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.007947310731370873</v>
+        <v>0.007947310731370866</v>
       </c>
       <c r="B3" t="n">
         <v>0.2915947210555104</v>
@@ -480,12 +480,12 @@
         <v>0.1300085251491901</v>
       </c>
       <c r="D3" t="n">
-        <v>36.69099282911916</v>
+        <v>36.69099282911919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01359996726639903</v>
+        <v>0.01359996726639904</v>
       </c>
       <c r="B4" t="n">
         <v>0.2766018610421426</v>
@@ -494,12 +494,12 @@
         <v>0.1534526854219949</v>
       </c>
       <c r="D4" t="n">
-        <v>20.33842108763992</v>
+        <v>20.3384210876399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01566609604583356</v>
+        <v>0.01566609604583377</v>
       </c>
       <c r="B5" t="n">
         <v>0.3232659400871831</v>
@@ -508,12 +508,12 @@
         <v>0.1270247229326513</v>
       </c>
       <c r="D5" t="n">
-        <v>20.63474774707234</v>
+        <v>20.63474774707207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.009934116717727749</v>
+        <v>0.009934116717727761</v>
       </c>
       <c r="B6" t="n">
         <v>0.3000604960368568</v>
@@ -522,26 +522,26 @@
         <v>0.1231884057971015</v>
       </c>
       <c r="D6" t="n">
-        <v>30.20505038977338</v>
+        <v>30.20505038977334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.006930762658496838</v>
+        <v>0.006930762658496827</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2888141391072678</v>
+        <v>0.2888141391072679</v>
       </c>
       <c r="C7" t="n">
         <v>0.1248934356351236</v>
       </c>
       <c r="D7" t="n">
-        <v>41.67133594644065</v>
+        <v>41.67133594644072</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.009763405249575838</v>
+        <v>0.009763405249575956</v>
       </c>
       <c r="B8" t="n">
         <v>0.2860616654261944</v>
@@ -550,12 +550,12 @@
         <v>0.1427962489343564</v>
       </c>
       <c r="D8" t="n">
-        <v>29.2993743590252</v>
+        <v>29.29937435902485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01078115729217555</v>
+        <v>0.01078115729217554</v>
       </c>
       <c r="B9" t="n">
         <v>0.3048858002059592</v>
@@ -564,12 +564,12 @@
         <v>0.1219096334185848</v>
       </c>
       <c r="D9" t="n">
-        <v>28.27950580289102</v>
+        <v>28.27950580289103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004476662693568479</v>
+        <v>0.00447666269356847</v>
       </c>
       <c r="B10" t="n">
         <v>0.2993601077041162</v>
@@ -578,12 +578,12 @@
         <v>0.1321398124467178</v>
       </c>
       <c r="D10" t="n">
-        <v>66.87126732469707</v>
+        <v>66.8712673246972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01814860512056532</v>
+        <v>0.0181486051205654</v>
       </c>
       <c r="B11" t="n">
         <v>0.2885101229859187</v>
@@ -592,7 +592,7 @@
         <v>0.1150895140664962</v>
       </c>
       <c r="D11" t="n">
-        <v>15.89709628201618</v>
+        <v>15.89709628201611</v>
       </c>
     </row>
   </sheetData>
